--- a/data/trans_bre/P2A_ner_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2A_ner_R-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 2,03</t>
+          <t>-1,64; 1,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 1,87</t>
+          <t>-3,27; 1,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 6,73</t>
+          <t>0,22; 6,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 0,34</t>
+          <t>-3,59; 0,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-76,04; 210,25</t>
+          <t>-73,95; 243,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-71,86; 75,36</t>
+          <t>-68,9; 110,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 354,96</t>
+          <t>-1,03; 391,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-72,12; 21,28</t>
+          <t>-71,35; 20,92</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 2,5</t>
+          <t>-2,61; 2,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 3,49</t>
+          <t>-2,72; 4,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 3,72</t>
+          <t>-1,9; 3,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 4,77</t>
+          <t>-0,48; 4,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,67; 130,57</t>
+          <t>-55,39; 112,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,85; 121,11</t>
+          <t>-51,28; 145,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,84; 189,26</t>
+          <t>-42,93; 171,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 320,74</t>
+          <t>-22,2; 330,19</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 7,44</t>
+          <t>-0,72; 7,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 3,44</t>
+          <t>-1,81; 3,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 16,01</t>
+          <t>3,71; 15,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 6,21</t>
+          <t>-0,49; 5,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,98; 316,89</t>
+          <t>-28,87; 356,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,74; 140,1</t>
+          <t>-50,05; 155,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>41,28; 333,13</t>
+          <t>52,11; 366,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 630,12</t>
+          <t>-17,56; 547,34</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,15</t>
+          <t>-0,36; 3,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 4,07</t>
+          <t>0,7; 4,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 6,77</t>
+          <t>2,18; 6,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 56,18</t>
+          <t>0,37; 56,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 130,53</t>
+          <t>-12,15; 130,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,58; 230,04</t>
+          <t>19,3; 245,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,82; 173,46</t>
+          <t>37,94; 176,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,4; 2530,34</t>
+          <t>9,76; 2606,37</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 4,68</t>
+          <t>-0,72; 4,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 5,28</t>
+          <t>0,33; 5,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,88; 14,13</t>
+          <t>7,96; 14,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 2,78</t>
+          <t>-2,21; 2,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 254,22</t>
+          <t>-24,21; 227,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,38; 237,54</t>
+          <t>2,53; 221,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>115,73; 352,13</t>
+          <t>113,03; 370,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-34,42; 77,5</t>
+          <t>-33,54; 76,3</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,46</t>
+          <t>1,71; 5,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,85; 5,1</t>
+          <t>1,02; 5,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,21; 11,29</t>
+          <t>5,49; 11,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 5,69</t>
+          <t>-0,28; 5,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>41,35; 854,22</t>
+          <t>50,98; 829,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,49; 729,28</t>
+          <t>12,41; 678,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>80,92; 585,49</t>
+          <t>84,98; 600,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 1286,36</t>
+          <t>-27,09; 1267,04</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,7</t>
+          <t>0,78; 2,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,79</t>
+          <t>0,9; 2,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,17; 7,77</t>
+          <t>5,3; 7,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 25,72</t>
+          <t>1,12; 23,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,87; 115,24</t>
+          <t>21,33; 109,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,95; 105,59</t>
+          <t>24,89; 110,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>101,28; 198,95</t>
+          <t>103,38; 196,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>33,24; 884,41</t>
+          <t>34,82; 795,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_ner_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2A_ner_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
